--- a/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
+++ b/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Run (mpiexec -hosts 3 PC2215 PC2408 PC2339)</t>
   </si>
@@ -28,15 +28,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Run-time </t>
-  </si>
-  <si>
-    <t>Master node RT</t>
-  </si>
-  <si>
-    <t>Slave 1 RT</t>
-  </si>
-  <si>
-    <t>Slave 2 RT</t>
   </si>
   <si>
     <t>Average</t>
@@ -384,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +390,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,15 +403,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -433,17 +418,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>135.488</v>
-      </c>
-      <c r="E2" s="1">
-        <v>135.488</v>
-      </c>
-      <c r="F2" s="1">
-        <v>89.275000000000006</v>
-      </c>
-      <c r="G2" s="2">
-        <v>126.58799999999999</v>
-      </c>
+        <v>103.268</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -456,16 +435,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>135.34700000000001</v>
-      </c>
-      <c r="E3">
-        <v>135.34700000000001</v>
-      </c>
-      <c r="F3">
-        <v>89.351799999999997</v>
-      </c>
-      <c r="G3">
-        <v>126.63500000000001</v>
+        <v>98.435000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -479,16 +449,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>135.239</v>
-      </c>
-      <c r="E4">
-        <v>135.239</v>
-      </c>
-      <c r="F4">
-        <v>88.930800000000005</v>
-      </c>
-      <c r="G4">
-        <v>126.539</v>
+        <v>103.73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,16 +463,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>135.57300000000001</v>
-      </c>
-      <c r="E5">
-        <v>135.57300000000001</v>
-      </c>
-      <c r="F5">
-        <v>89.983599999999996</v>
-      </c>
-      <c r="G5">
-        <v>126.791</v>
+        <v>103.858</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,28 +477,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>135.399</v>
-      </c>
-      <c r="E6">
-        <v>135.399</v>
-      </c>
-      <c r="F6">
-        <v>88.5745</v>
-      </c>
-      <c r="G6">
-        <v>126.744</v>
+        <v>103.471</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f>AVERAGE(D2:D6)</f>
-        <v>135.4092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>102.55239999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,15 +502,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -579,18 +516,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>345.375</v>
-      </c>
-      <c r="E11" s="1">
-        <v>345.375</v>
-      </c>
-      <c r="F11" s="1">
-        <v>222.006</v>
-      </c>
-      <c r="G11">
-        <v>328.279</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -602,18 +529,6 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>343.88099999999997</v>
-      </c>
-      <c r="E12">
-        <v>343.88099999999997</v>
-      </c>
-      <c r="F12">
-        <v>228.80199999999999</v>
-      </c>
-      <c r="G12">
-        <v>327.524</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -625,18 +540,6 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>347.88600000000002</v>
-      </c>
-      <c r="E13">
-        <v>347.88600000000002</v>
-      </c>
-      <c r="F13">
-        <v>222.952</v>
-      </c>
-      <c r="G13">
-        <v>331.32</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -647,18 +550,6 @@
       </c>
       <c r="C14">
         <v>2</v>
-      </c>
-      <c r="D14">
-        <v>344.02300000000002</v>
-      </c>
-      <c r="E14">
-        <v>344.02300000000002</v>
-      </c>
-      <c r="F14">
-        <v>229.309</v>
-      </c>
-      <c r="G14">
-        <v>327.49299999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -671,29 +562,13 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>345.54500000000002</v>
-      </c>
-      <c r="E15">
-        <v>345.54500000000002</v>
-      </c>
-      <c r="F15">
-        <v>226.952</v>
-      </c>
-      <c r="G15">
-        <v>328.79899999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(D11:D15)</f>
-        <v>345.34199999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,15 +581,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -726,18 +595,6 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>630.06399999999996</v>
-      </c>
-      <c r="E20">
-        <v>630.06399999999996</v>
-      </c>
-      <c r="F20">
-        <v>422.10700000000003</v>
-      </c>
-      <c r="G20">
-        <v>605.37400000000002</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -749,18 +606,6 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>439.73</v>
-      </c>
-      <c r="E21">
-        <v>439.73</v>
-      </c>
-      <c r="F21">
-        <v>421.03100000000001</v>
-      </c>
-      <c r="G21">
-        <v>606.31100000000004</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -772,18 +617,6 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>632.88599999999997</v>
-      </c>
-      <c r="E22">
-        <v>632.88599999999997</v>
-      </c>
-      <c r="F22">
-        <v>422.57</v>
-      </c>
-      <c r="G22">
-        <v>608.226</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -794,18 +627,6 @@
       </c>
       <c r="C23">
         <v>2</v>
-      </c>
-      <c r="D23">
-        <v>634.41099999999994</v>
-      </c>
-      <c r="E23">
-        <v>634.41099999999994</v>
-      </c>
-      <c r="F23">
-        <v>416.20499999999998</v>
-      </c>
-      <c r="G23">
-        <v>609.83399999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,29 +639,13 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>634.41099999999994</v>
-      </c>
-      <c r="E24">
-        <v>634.41099999999994</v>
-      </c>
-      <c r="F24">
-        <v>416.20499999999998</v>
-      </c>
-      <c r="G24">
-        <v>609.83399999999995</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(D20:D24)</f>
-        <v>594.30039999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,15 +658,9 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -873,18 +672,6 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>1591.68</v>
-      </c>
-      <c r="E29">
-        <v>1591.68</v>
-      </c>
-      <c r="F29">
-        <v>647.87199999999996</v>
-      </c>
-      <c r="G29">
-        <v>1519.49</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -896,18 +683,6 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>1522.29</v>
-      </c>
-      <c r="E30">
-        <v>1522.29</v>
-      </c>
-      <c r="F30">
-        <v>643.95299999999997</v>
-      </c>
-      <c r="G30">
-        <v>1466.65</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -919,18 +694,6 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>1515.07</v>
-      </c>
-      <c r="E31">
-        <v>1515.07</v>
-      </c>
-      <c r="F31">
-        <v>644.74699999999996</v>
-      </c>
-      <c r="G31">
-        <v>1462.62</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -941,18 +704,6 @@
       </c>
       <c r="C32">
         <v>2</v>
-      </c>
-      <c r="D32">
-        <v>1521.24</v>
-      </c>
-      <c r="E32">
-        <v>1521.24</v>
-      </c>
-      <c r="F32">
-        <v>644.125</v>
-      </c>
-      <c r="G32">
-        <v>1469.34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,29 +716,13 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>1522.99</v>
-      </c>
-      <c r="E33">
-        <v>1522.99</v>
-      </c>
-      <c r="F33">
-        <v>647.41899999999998</v>
-      </c>
-      <c r="G33">
-        <v>1473.39</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <f>AVERAGE(D29:D33)</f>
-        <v>1534.654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,15 +735,9 @@
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1023,15 +752,6 @@
       <c r="D38">
         <v>1839.33</v>
       </c>
-      <c r="E38">
-        <v>1839.33</v>
-      </c>
-      <c r="F38">
-        <v>918.62</v>
-      </c>
-      <c r="G38">
-        <v>1785.65</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1046,15 +766,6 @@
       <c r="D39">
         <v>1835.05</v>
       </c>
-      <c r="E39">
-        <v>1835.05</v>
-      </c>
-      <c r="F39">
-        <v>965.32399999999996</v>
-      </c>
-      <c r="G39">
-        <v>1781.18</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1069,15 +780,6 @@
       <c r="D40">
         <v>1830.53</v>
       </c>
-      <c r="E40">
-        <v>1830.53</v>
-      </c>
-      <c r="F40">
-        <v>947.53300000000002</v>
-      </c>
-      <c r="G40">
-        <v>1784.11</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1091,15 +793,6 @@
       </c>
       <c r="D41">
         <v>1830.53</v>
-      </c>
-      <c r="E41">
-        <v>1830.53</v>
-      </c>
-      <c r="F41">
-        <v>920.94399999999996</v>
-      </c>
-      <c r="G41">
-        <v>1778.63</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,19 +808,10 @@
       <c r="D42">
         <v>1826.34</v>
       </c>
-      <c r="E42">
-        <v>1826.34</v>
-      </c>
-      <c r="F42">
-        <v>917.46500000000003</v>
-      </c>
-      <c r="G42">
-        <v>1775.3</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <f>AVERAGE(D38:D42)</f>

--- a/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
+++ b/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +516,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>245.917</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -529,6 +532,9 @@
       <c r="C12">
         <v>2</v>
       </c>
+      <c r="D12">
+        <v>245.56100000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -539,6 +545,9 @@
       </c>
       <c r="C13">
         <v>2</v>
+      </c>
+      <c r="D13">
+        <v>244.85499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
+++ b/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,9 @@
       </c>
       <c r="C15">
         <v>2</v>
+      </c>
+      <c r="D15">
+        <v>245.63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
+++ b/Results/ScenarioI-Same-Model/ScenarioI-Proto-II/ProtoII.xlsx
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,6 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <f>AVERAGE(D2:D6)</f>
         <v>102.55239999999999</v>
       </c>
     </row>
@@ -560,6 +559,9 @@
       <c r="C14">
         <v>2</v>
       </c>
+      <c r="D14">
+        <v>243.45500000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -579,6 +581,9 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>245.08360000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -607,6 +612,9 @@
       <c r="C20">
         <v>2</v>
       </c>
+      <c r="D20">
+        <v>440.00799999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -617,6 +625,9 @@
       </c>
       <c r="C21">
         <v>2</v>
+      </c>
+      <c r="D21">
+        <v>437.50099999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -629,6 +640,9 @@
       <c r="C22">
         <v>2</v>
       </c>
+      <c r="D22">
+        <v>439.73</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -639,6 +653,9 @@
       </c>
       <c r="C23">
         <v>2</v>
+      </c>
+      <c r="D23">
+        <v>440.44600000000003</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,10 +668,16 @@
       <c r="C24">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>444.39499999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
+      </c>
+      <c r="D25">
+        <v>440.416</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -684,6 +707,9 @@
       <c r="C29">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>705.87199999999996</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -694,6 +720,9 @@
       </c>
       <c r="C30">
         <v>2</v>
+      </c>
+      <c r="D30">
+        <v>711.43700000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,6 +735,9 @@
       <c r="C31">
         <v>2</v>
       </c>
+      <c r="D31">
+        <v>710.85400000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -716,6 +748,9 @@
       </c>
       <c r="C32">
         <v>2</v>
+      </c>
+      <c r="D32">
+        <v>707.41</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,10 +763,16 @@
       <c r="C33">
         <v>2</v>
       </c>
+      <c r="D33">
+        <v>707.95699999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
+      </c>
+      <c r="D34">
+        <v>708.7059999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -762,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1839.33</v>
+        <v>989.60400000000004</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>1835.05</v>
+        <v>984.34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -790,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1830.53</v>
+        <v>1013.19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>1830.53</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1826.34</v>
+        <v>1031.78</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,8 +867,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <f>AVERAGE(D38:D42)</f>
-        <v>1832.3559999999998</v>
+        <v>1014.9828</v>
       </c>
     </row>
   </sheetData>
